--- a/biology/Botanique/Benjamin_Balansa/Benjamin_Balansa.xlsx
+++ b/biology/Botanique/Benjamin_Balansa/Benjamin_Balansa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaspard Joseph Benedict Balansa, plus connu sous le nom de Benjamin Balansa parfois Benedict Balansa (Narbonne, 25 mars 1825 – 2 novembre 1891) est un botaniste et explorateur français
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de bateliers toulousains (Joseph Balansa et Jeanne Causidou), Benjamin Balansa est né dans la nuit du 25 mars 1825 sur une péniche près de Narbonne. Il fait ses études au collège de Sorèze.
 Balansa fait de nombreux voyages de collecte pour le Muséum National d'Histoire naturelle de Paris qui détient la plupart de ses spécimens de plantes. Une partie de ces collections est au Muséum de Toulouse.
@@ -558,7 +572,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit la description de  43 espèces :
 Leguminosae Adenocarpus anagyrifolius Coss. &amp; Bal. [1873 publ. 1874]
@@ -631,7 +647,9 @@
           <t>Abréviation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Balansa est l'abréviation internationale en botanique pour cet auteur.
 </t>
@@ -662,7 +680,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le dédicataire de nombreux genres :Balansaea Boiss. Balansaephytum Drake (1896), Balansia Speg. (1885), Balansiella Henn. (1904), Balansina G.Arnaud (1918), Balansiopsis Höhn. (1910)  Balansochloa Kuntze (1903); mais aussi d'espèces telles que  Trigonella balansae et Wittsteinia balansae.
 </t>
@@ -693,7 +713,9 @@
           <t>L'index international des noms de plantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des plantes décrites
 </t>
@@ -724,7 +746,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Note sur un nouveau Rumex de l'Asie Mineure. In: Bulletin de la Société Botanique de France. Band 1, 1854, S. 281–283 (online).
 [Lettre sur la végétation du Taurus]. In: Bulletin de la Société Botanique de France. Band 2, 1855, S. 654–657 (online).
